--- a/results/mp/tinybert/corona/confidence/84/stop-words-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="105">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,90 +40,63 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
+    <t>killed</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>complaints</t>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>fraud</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>kill</t>
+    <t>war</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>recession</t>
+    <t>fears</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
@@ -133,214 +106,229 @@
     <t>demand</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
 </sst>
 </file>
@@ -698,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -706,10 +694,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -770,10 +758,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -788,16 +776,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -817,13 +805,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -835,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -867,13 +855,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -885,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -909,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -917,13 +905,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -935,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -959,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -967,13 +955,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.92</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -985,31 +973,31 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="L7">
+        <v>31</v>
+      </c>
+      <c r="M7">
+        <v>31</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>2</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>7</v>
-      </c>
-      <c r="M7">
-        <v>7</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1017,13 +1005,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9090909090909091</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1035,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L8">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1059,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1067,13 +1055,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.875</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>188</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>188</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1085,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>0.96875</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1109,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1117,13 +1105,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1135,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>0.9583333333333334</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L10">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="M10">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1159,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1167,13 +1155,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7777777777777778</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1185,19 +1173,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>0.9375</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L11">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="M11">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1209,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1217,13 +1205,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7647058823529411</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1235,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>0.9090909090909091</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1259,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1267,13 +1255,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7077922077922078</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C13">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1285,19 +1273,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>0.8888888888888888</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L13">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1309,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1317,13 +1305,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1335,19 +1323,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>0.8888888888888888</v>
+        <v>0.8046875</v>
       </c>
       <c r="L14">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1359,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1367,13 +1355,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5833333333333334</v>
+        <v>0.32</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1385,19 +1373,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>0.8888888888888888</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="M15">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1409,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1417,13 +1405,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5238095238095238</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1435,31 +1423,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>0.8888888888888888</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
+        <v>28</v>
+      </c>
+      <c r="M16">
+        <v>28</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>8</v>
-      </c>
-      <c r="M16">
-        <v>8</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1467,13 +1455,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.2829457364341085</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1485,19 +1473,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14</v>
+        <v>370</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>0.8823529411764706</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="M17">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1517,13 +1505,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4705882352941176</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1535,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>0.8571428571428571</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L18">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1559,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1567,13 +1555,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.463519313304721</v>
+        <v>0.2328042328042328</v>
       </c>
       <c r="C19">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="D19">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1585,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1617,13 +1605,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4444444444444444</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1635,19 +1623,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1659,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1667,13 +1655,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4375</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1685,19 +1673,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>0.8333333333333334</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L21">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M21">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1709,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1717,13 +1705,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4210526315789473</v>
+        <v>0.175</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1735,19 +1723,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>0.8181818181818182</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L22">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M22">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1759,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1767,13 +1755,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4166666666666667</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1785,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>0.8148148148148148</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="M23">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1809,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1817,13 +1805,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4074074074074074</v>
+        <v>0.06166219839142091</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1835,933 +1823,669 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <v>350</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24">
+        <v>0.7075471698113207</v>
+      </c>
+      <c r="L24">
+        <v>75</v>
+      </c>
+      <c r="M24">
+        <v>75</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25">
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="L25">
+        <v>33</v>
+      </c>
+      <c r="M25">
+        <v>33</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26">
+        <v>0.6875</v>
+      </c>
+      <c r="L26">
+        <v>110</v>
+      </c>
+      <c r="M26">
+        <v>110</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L27">
+        <v>32</v>
+      </c>
+      <c r="M27">
+        <v>32</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>16</v>
       </c>
-      <c r="J24" s="1" t="s">
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28">
+        <v>0.6296296296296297</v>
+      </c>
+      <c r="L28">
+        <v>17</v>
+      </c>
+      <c r="M28">
+        <v>17</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29">
+        <v>0.6151832460732984</v>
+      </c>
+      <c r="L29">
+        <v>235</v>
+      </c>
+      <c r="M29">
+        <v>236</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K30">
+        <v>0.6063829787234043</v>
+      </c>
+      <c r="L30">
+        <v>57</v>
+      </c>
+      <c r="M30">
+        <v>57</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K31">
+        <v>0.6</v>
+      </c>
+      <c r="L31">
+        <v>30</v>
+      </c>
+      <c r="M31">
+        <v>30</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K32">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="L32">
+        <v>37</v>
+      </c>
+      <c r="M32">
+        <v>37</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L33">
+        <v>14</v>
+      </c>
+      <c r="M33">
+        <v>14</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K34">
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="L34">
+        <v>19</v>
+      </c>
+      <c r="M34">
+        <v>19</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K24">
-        <v>0.803921568627451</v>
-      </c>
-      <c r="L24">
+      <c r="K35">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L35">
+        <v>16</v>
+      </c>
+      <c r="M35">
+        <v>16</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K36">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L36">
+        <v>16</v>
+      </c>
+      <c r="M36">
+        <v>16</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K37">
+        <v>0.5393258426966292</v>
+      </c>
+      <c r="L37">
+        <v>48</v>
+      </c>
+      <c r="M37">
+        <v>48</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>41</v>
       </c>
-      <c r="M24">
-        <v>41</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.3448275862068966</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
-      </c>
-      <c r="D25">
-        <v>10</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K38">
+        <v>0.5323529411764706</v>
+      </c>
+      <c r="L38">
+        <v>181</v>
+      </c>
+      <c r="M38">
+        <v>181</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K39">
+        <v>0.525</v>
+      </c>
+      <c r="L39">
+        <v>21</v>
+      </c>
+      <c r="M39">
+        <v>21</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>19</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K25">
-        <v>0.8</v>
-      </c>
-      <c r="L25">
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K40">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="L40">
+        <v>23</v>
+      </c>
+      <c r="M40">
+        <v>23</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K41">
+        <v>0.4923076923076923</v>
+      </c>
+      <c r="L41">
+        <v>32</v>
+      </c>
+      <c r="M41">
+        <v>32</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K42">
+        <v>0.488135593220339</v>
+      </c>
+      <c r="L42">
+        <v>144</v>
+      </c>
+      <c r="M42">
+        <v>144</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K43">
+        <v>0.4871794871794872</v>
+      </c>
+      <c r="L43">
+        <v>38</v>
+      </c>
+      <c r="M43">
+        <v>38</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K44">
+        <v>0.4857142857142857</v>
+      </c>
+      <c r="L44">
+        <v>17</v>
+      </c>
+      <c r="M44">
+        <v>17</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K45">
+        <v>0.4651162790697674</v>
+      </c>
+      <c r="L45">
         <v>20</v>
       </c>
-      <c r="M25">
+      <c r="M45">
         <v>20</v>
       </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.3157894736842105</v>
-      </c>
-      <c r="C26">
-        <v>12</v>
-      </c>
-      <c r="D26">
-        <v>12</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>26</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K26">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="L26">
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K46">
+        <v>0.453125</v>
+      </c>
+      <c r="L46">
+        <v>29</v>
+      </c>
+      <c r="M46">
+        <v>29</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K47">
+        <v>0.4520547945205479</v>
+      </c>
+      <c r="L47">
+        <v>33</v>
+      </c>
+      <c r="M47">
+        <v>33</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K48">
+        <v>0.4411764705882353</v>
+      </c>
+      <c r="L48">
+        <v>15</v>
+      </c>
+      <c r="M48">
+        <v>15</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
         <v>19</v>
-      </c>
-      <c r="M26">
-        <v>19</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.3023255813953488</v>
-      </c>
-      <c r="C27">
-        <v>26</v>
-      </c>
-      <c r="D27">
-        <v>26</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>60</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K27">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L27">
-        <v>7</v>
-      </c>
-      <c r="M27">
-        <v>7</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.2875</v>
-      </c>
-      <c r="C28">
-        <v>23</v>
-      </c>
-      <c r="D28">
-        <v>23</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>57</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K28">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L28">
-        <v>10</v>
-      </c>
-      <c r="M28">
-        <v>10</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.2692307692307692</v>
-      </c>
-      <c r="C29">
-        <v>7</v>
-      </c>
-      <c r="D29">
-        <v>7</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>19</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K29">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L29">
-        <v>13</v>
-      </c>
-      <c r="M29">
-        <v>13</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.2</v>
-      </c>
-      <c r="C30">
-        <v>8</v>
-      </c>
-      <c r="D30">
-        <v>8</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>32</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K30">
-        <v>0.7413793103448276</v>
-      </c>
-      <c r="L30">
-        <v>43</v>
-      </c>
-      <c r="M30">
-        <v>43</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="C31">
-        <v>8</v>
-      </c>
-      <c r="D31">
-        <v>8</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>38</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K31">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="L31">
-        <v>16</v>
-      </c>
-      <c r="M31">
-        <v>16</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.1636363636363636</v>
-      </c>
-      <c r="C32">
-        <v>18</v>
-      </c>
-      <c r="D32">
-        <v>18</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>92</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K32">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="L32">
-        <v>21</v>
-      </c>
-      <c r="M32">
-        <v>21</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.09677419354838709</v>
-      </c>
-      <c r="C33">
-        <v>18</v>
-      </c>
-      <c r="D33">
-        <v>18</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>168</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K33">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="L33">
-        <v>28</v>
-      </c>
-      <c r="M33">
-        <v>28</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.009529860228716646</v>
-      </c>
-      <c r="C34">
-        <v>15</v>
-      </c>
-      <c r="D34">
-        <v>38</v>
-      </c>
-      <c r="E34">
-        <v>0.61</v>
-      </c>
-      <c r="F34">
-        <v>0.39</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>1559</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K34">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L34">
-        <v>9</v>
-      </c>
-      <c r="M34">
-        <v>9</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.004560260586319218</v>
-      </c>
-      <c r="C35">
-        <v>7</v>
-      </c>
-      <c r="D35">
-        <v>36</v>
-      </c>
-      <c r="E35">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="F35">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>1528</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K35">
-        <v>0.68</v>
-      </c>
-      <c r="L35">
-        <v>17</v>
-      </c>
-      <c r="M35">
-        <v>17</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K36">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L36">
-        <v>7</v>
-      </c>
-      <c r="M36">
-        <v>7</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K37">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L37">
-        <v>21</v>
-      </c>
-      <c r="M37">
-        <v>21</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K38">
-        <v>0.6291079812206573</v>
-      </c>
-      <c r="L38">
-        <v>134</v>
-      </c>
-      <c r="M38">
-        <v>134</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K39">
-        <v>0.6164383561643836</v>
-      </c>
-      <c r="L39">
-        <v>45</v>
-      </c>
-      <c r="M39">
-        <v>45</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K40">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="L40">
-        <v>16</v>
-      </c>
-      <c r="M40">
-        <v>16</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K41">
-        <v>0.6</v>
-      </c>
-      <c r="L41">
-        <v>15</v>
-      </c>
-      <c r="M41">
-        <v>15</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K42">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L42">
-        <v>7</v>
-      </c>
-      <c r="M42">
-        <v>7</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K43">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="L43">
-        <v>17</v>
-      </c>
-      <c r="M43">
-        <v>17</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K44">
-        <v>0.5625</v>
-      </c>
-      <c r="L44">
-        <v>81</v>
-      </c>
-      <c r="M44">
-        <v>81</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K45">
-        <v>0.5294117647058824</v>
-      </c>
-      <c r="L45">
-        <v>9</v>
-      </c>
-      <c r="M45">
-        <v>9</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K46">
-        <v>0.5263157894736842</v>
-      </c>
-      <c r="L46">
-        <v>10</v>
-      </c>
-      <c r="M46">
-        <v>10</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K47">
-        <v>0.5038759689922481</v>
-      </c>
-      <c r="L47">
-        <v>65</v>
-      </c>
-      <c r="M47">
-        <v>65</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K48">
-        <v>0.5</v>
-      </c>
-      <c r="L48">
-        <v>10</v>
-      </c>
-      <c r="M48">
-        <v>10</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>10</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K49">
-        <v>0.5</v>
+        <v>0.4351464435146444</v>
       </c>
       <c r="L49">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="M49">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2773,21 +2497,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>14</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K50">
-        <v>0.5</v>
+        <v>0.325</v>
       </c>
       <c r="L50">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2799,21 +2523,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K51">
-        <v>0.4857142857142857</v>
+        <v>0.3</v>
       </c>
       <c r="L51">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M51">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2825,21 +2549,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K52">
-        <v>0.4565217391304348</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="L52">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2851,47 +2575,47 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K53">
-        <v>0.4324324324324325</v>
+        <v>0.2394366197183098</v>
       </c>
       <c r="L53">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M53">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K54">
-        <v>0.4</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="L54">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M54">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2903,47 +2627,47 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>12</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K55">
-        <v>0.3125</v>
+        <v>0.1359223300970874</v>
       </c>
       <c r="L55">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M55">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>22</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="K56">
-        <v>0.2894736842105263</v>
+        <v>0.1181102362204724</v>
       </c>
       <c r="L56">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M56">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2955,47 +2679,47 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="K57">
-        <v>0.2647058823529412</v>
+        <v>0.1175059952038369</v>
       </c>
       <c r="L57">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="M57">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>25</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="K58">
-        <v>0.2580645161290323</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="L58">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="M58">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3007,21 +2731,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K59">
-        <v>0.1666666666666667</v>
+        <v>0.1009615384615385</v>
       </c>
       <c r="L59">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="M59">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3033,21 +2757,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>40</v>
+        <v>374</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="K60">
-        <v>0.1590909090909091</v>
+        <v>0.09883720930232558</v>
       </c>
       <c r="L60">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M60">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3059,47 +2783,47 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>37</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="K61">
-        <v>0.08860759493670886</v>
+        <v>0.09420289855072464</v>
       </c>
       <c r="L61">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M61">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N61">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>72</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="K62">
-        <v>0.08585858585858586</v>
+        <v>0.0880503144654088</v>
       </c>
       <c r="L62">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M62">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3111,21 +2835,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>181</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="K63">
-        <v>0.08048780487804878</v>
+        <v>0.08484848484848485</v>
       </c>
       <c r="L63">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M63">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3137,21 +2861,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>377</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="K64">
-        <v>0.07333333333333333</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="L64">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M64">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3163,73 +2887,73 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>139</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="K65">
-        <v>0.0625</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="L65">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M65">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N65">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>195</v>
+        <v>306</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="K66">
-        <v>0.04777070063694268</v>
+        <v>0.05823068309070549</v>
       </c>
       <c r="L66">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="M66">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="N66">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O66">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>299</v>
+        <v>841</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="K67">
-        <v>0.04460093896713615</v>
+        <v>0.05349794238683128</v>
       </c>
       <c r="L67">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M67">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3241,111 +2965,241 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>407</v>
+        <v>460</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="K68">
-        <v>0.03828828828828829</v>
+        <v>0.04776579352850539</v>
       </c>
       <c r="L68">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M68">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>427</v>
+        <v>618</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="K69">
-        <v>0.03756708407871199</v>
+        <v>0.04439511653718091</v>
       </c>
       <c r="L69">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M69">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="N69">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>1076</v>
+        <v>861</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="K70">
-        <v>0.01862556197816313</v>
+        <v>0.03937823834196891</v>
       </c>
       <c r="L70">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M70">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N70">
-        <v>0.8100000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="O70">
-        <v>0.1899999999999999</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>1528</v>
+        <v>927</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="K71">
-        <v>0.0145385587863464</v>
+        <v>0.03891233005157056</v>
       </c>
       <c r="L71">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="M71">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="N71">
-        <v>0.61</v>
+        <v>0.89</v>
       </c>
       <c r="O71">
-        <v>0.39</v>
+        <v>0.11</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>1559</v>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K72">
+        <v>0.03352601156069364</v>
+      </c>
+      <c r="L72">
+        <v>29</v>
+      </c>
+      <c r="M72">
+        <v>31</v>
+      </c>
+      <c r="N72">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O72">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K73">
+        <v>0.03099773974814336</v>
+      </c>
+      <c r="L73">
+        <v>96</v>
+      </c>
+      <c r="M73">
+        <v>106</v>
+      </c>
+      <c r="N73">
+        <v>0.91</v>
+      </c>
+      <c r="O73">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K74">
+        <v>0.02469135802469136</v>
+      </c>
+      <c r="L74">
+        <v>14</v>
+      </c>
+      <c r="M74">
+        <v>14</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K75">
+        <v>0.02074330164217805</v>
+      </c>
+      <c r="L75">
+        <v>24</v>
+      </c>
+      <c r="M75">
+        <v>28</v>
+      </c>
+      <c r="N75">
+        <v>0.86</v>
+      </c>
+      <c r="O75">
+        <v>0.14</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K76">
+        <v>0.02036979003447195</v>
+      </c>
+      <c r="L76">
+        <v>65</v>
+      </c>
+      <c r="M76">
+        <v>75</v>
+      </c>
+      <c r="N76">
+        <v>0.87</v>
+      </c>
+      <c r="O76">
+        <v>0.13</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>3126</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,9 +43,6 @@
     <t>killed</t>
   </si>
   <si>
-    <t>arrested</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -55,274 +52,292 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>fear</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>fuck</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>strong</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>healthy</t>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>advantage</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>key</t>
+    <t>give</t>
   </si>
   <si>
     <t>increased</t>
   </si>
   <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
     <t>essential</t>
   </si>
   <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>shopping</t>
+    <t>shop</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>stay</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>san</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
     <t>food</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>toilet</t>
   </si>
   <si>
     <t>prices</t>
@@ -686,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q76"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -694,10 +709,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -776,16 +791,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -805,13 +820,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -823,19 +838,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="L4">
         <v>32</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>18</v>
-      </c>
       <c r="M4">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -847,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -855,13 +870,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.68</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -873,19 +888,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K5">
-        <v>0.9545454545454546</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L5">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -905,13 +920,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.76</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -923,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -947,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -955,13 +970,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6666666666666666</v>
+        <v>0.6541095890410958</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -973,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K7">
-        <v>0.9393939393939394</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -997,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1005,13 +1020,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6538461538461539</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1023,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K8">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1055,13 +1070,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6438356164383562</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C9">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1073,19 +1088,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>0.9130434782608695</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1097,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1105,13 +1120,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4210526315789473</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1123,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>0.8292682926829268</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1147,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1155,13 +1170,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3846153846153846</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1173,19 +1188,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>0.8214285714285714</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L11">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="M11">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1197,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1205,13 +1220,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3783783783783784</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1223,19 +1238,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>0.8103448275862069</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L12">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="M12">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1247,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1255,13 +1270,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3513513513513514</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1273,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>0.8055555555555556</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1297,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1305,13 +1320,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3333333333333333</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1323,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>0.8046875</v>
+        <v>0.8125</v>
       </c>
       <c r="L14">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M14">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1347,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1355,13 +1370,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.32</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1373,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>0.7916666666666666</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L15">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1397,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1405,13 +1420,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2941176470588235</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1423,19 +1438,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1447,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1455,13 +1470,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2829457364341085</v>
+        <v>0.2965116279069768</v>
       </c>
       <c r="C17">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D17">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1473,19 +1488,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>0.7777777777777778</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1497,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1505,13 +1520,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2363636363636364</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1523,19 +1538,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>0.7647058823529411</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L18">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="M18">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1547,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1555,13 +1570,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2328042328042328</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C19">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1573,19 +1588,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L19">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="M19">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1597,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1605,13 +1620,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2077922077922078</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1623,19 +1638,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K20">
         <v>0.75</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1647,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1655,13 +1670,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1879194630872483</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1673,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K21">
-        <v>0.7391304347826086</v>
+        <v>0.75</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1705,13 +1720,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.175</v>
+        <v>0.2080536912751678</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1723,19 +1738,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>0.7368421052631579</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M22">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1747,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1755,13 +1770,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.119047619047619</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1773,19 +1788,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>222</v>
+        <v>63</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K23">
-        <v>0.7183098591549296</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L23">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="M23">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1797,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1805,13 +1820,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.06166219839142091</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1823,19 +1838,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>350</v>
+        <v>225</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K24">
-        <v>0.7075471698113207</v>
+        <v>0.69375</v>
       </c>
       <c r="L24">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="M24">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1847,47 +1862,95 @@
         <v>0</v>
       </c>
       <c r="Q24">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>0.04</v>
+      </c>
+      <c r="F25">
+        <v>0.96</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>348</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25">
+        <v>0.6808510638297872</v>
+      </c>
+      <c r="L25">
+        <v>32</v>
+      </c>
+      <c r="M25">
+        <v>32</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K25">
-        <v>0.7021276595744681</v>
-      </c>
-      <c r="L25">
-        <v>33</v>
-      </c>
-      <c r="M25">
-        <v>33</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="B26">
+        <v>0.004981733643307871</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>111</v>
+      </c>
+      <c r="E26">
+        <v>0.86</v>
+      </c>
+      <c r="F26">
+        <v>0.14</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>2996</v>
+      </c>
       <c r="J26" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K26">
-        <v>0.6875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L26">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="M26">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1899,21 +1962,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K27">
         <v>0.6666666666666666</v>
       </c>
       <c r="L27">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M27">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1925,21 +1988,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K28">
-        <v>0.6296296296296297</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L28">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M28">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1951,21 +2014,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K29">
-        <v>0.6151832460732984</v>
+        <v>0.66</v>
       </c>
       <c r="L29">
-        <v>235</v>
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>236</v>
+        <v>33</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1974,24 +2037,24 @@
         <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>147</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K30">
-        <v>0.6063829787234043</v>
+        <v>0.625</v>
       </c>
       <c r="L30">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2003,15 +2066,15 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K31">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="L31">
         <v>30</v>
@@ -2029,21 +2092,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K32">
-        <v>0.5873015873015873</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L32">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="M32">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2055,47 +2118,47 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K33">
-        <v>0.5833333333333334</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L33">
+        <v>20</v>
+      </c>
+      <c r="M33">
+        <v>20</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>14</v>
-      </c>
-      <c r="M33">
-        <v>14</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>10</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K34">
-        <v>0.5757575757575758</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2107,21 +2170,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K35">
-        <v>0.5714285714285714</v>
+        <v>0.5691906005221932</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>218</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>218</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2133,21 +2196,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K36">
-        <v>0.5714285714285714</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2159,21 +2222,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K37">
-        <v>0.5393258426966292</v>
+        <v>0.55</v>
       </c>
       <c r="L37">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2185,21 +2248,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K38">
-        <v>0.5323529411764706</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L38">
-        <v>181</v>
+        <v>47</v>
       </c>
       <c r="M38">
-        <v>181</v>
+        <v>47</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2211,21 +2274,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>159</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K39">
-        <v>0.525</v>
+        <v>0.5050847457627119</v>
       </c>
       <c r="L39">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="M39">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2237,21 +2300,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>19</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K40">
-        <v>0.5111111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="L40">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M40">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2263,21 +2326,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K41">
-        <v>0.4923076923076923</v>
+        <v>0.4970588235294118</v>
       </c>
       <c r="L41">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="M41">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2289,21 +2352,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>33</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K42">
-        <v>0.488135593220339</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L42">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="M42">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2315,21 +2378,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>151</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K43">
-        <v>0.4871794871794872</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L43">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="M43">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2341,21 +2404,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K44">
-        <v>0.4857142857142857</v>
+        <v>0.4309623430962343</v>
       </c>
       <c r="L44">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="M44">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2367,47 +2430,47 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K45">
-        <v>0.4651162790697674</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L45">
+        <v>15</v>
+      </c>
+      <c r="M45">
+        <v>15</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
         <v>20</v>
-      </c>
-      <c r="M45">
-        <v>20</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>23</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K46">
-        <v>0.453125</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L46">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M46">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2419,21 +2482,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K47">
-        <v>0.4520547945205479</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L47">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M47">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2445,21 +2508,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K48">
-        <v>0.4411764705882353</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2471,21 +2534,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K49">
-        <v>0.4351464435146444</v>
+        <v>0.390625</v>
       </c>
       <c r="L49">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="M49">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2497,21 +2560,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>135</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K50">
-        <v>0.325</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="L50">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M50">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2523,21 +2586,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K51">
-        <v>0.3</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="L51">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M51">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2549,21 +2612,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K52">
-        <v>0.2765957446808511</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L52">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M52">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2575,47 +2638,47 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K53">
-        <v>0.2394366197183098</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L53">
         <v>17</v>
       </c>
       <c r="M53">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N53">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K54">
-        <v>0.1368421052631579</v>
+        <v>0.25</v>
       </c>
       <c r="L54">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M54">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2627,99 +2690,99 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K55">
-        <v>0.1359223300970874</v>
+        <v>0.1574803149606299</v>
       </c>
       <c r="L55">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M55">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N55">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K56">
-        <v>0.1181102362204724</v>
+        <v>0.1461538461538462</v>
       </c>
       <c r="L56">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M56">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K57">
+        <v>0.1326530612244898</v>
+      </c>
+      <c r="L57">
+        <v>13</v>
+      </c>
+      <c r="M57">
+        <v>13</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
         <v>85</v>
-      </c>
-      <c r="K57">
-        <v>0.1175059952038369</v>
-      </c>
-      <c r="L57">
-        <v>49</v>
-      </c>
-      <c r="M57">
-        <v>50</v>
-      </c>
-      <c r="N57">
-        <v>0.98</v>
-      </c>
-      <c r="O57">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P57" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>368</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K58">
-        <v>0.1162790697674419</v>
+        <v>0.1293103448275862</v>
       </c>
       <c r="L58">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M58">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2731,21 +2794,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>190</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K59">
-        <v>0.1009615384615385</v>
+        <v>0.103030303030303</v>
       </c>
       <c r="L59">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="M59">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2757,21 +2820,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>374</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K60">
-        <v>0.09883720930232558</v>
+        <v>0.1006289308176101</v>
       </c>
       <c r="L60">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M60">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2783,21 +2846,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K61">
-        <v>0.09420289855072464</v>
+        <v>0.0985576923076923</v>
       </c>
       <c r="L61">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M61">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2809,47 +2872,47 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>125</v>
+        <v>375</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K62">
-        <v>0.0880503144654088</v>
+        <v>0.0892018779342723</v>
       </c>
       <c r="L62">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M62">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>145</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K63">
-        <v>0.08484848484848485</v>
+        <v>0.08373205741626795</v>
       </c>
       <c r="L63">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="M63">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2861,47 +2924,47 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>151</v>
+        <v>383</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K64">
-        <v>0.07906976744186046</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="L64">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M64">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>198</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K65">
-        <v>0.06422018348623854</v>
+        <v>0.0755813953488372</v>
       </c>
       <c r="L65">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M65">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2913,47 +2976,47 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>306</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K66">
-        <v>0.05823068309070549</v>
+        <v>0.07384615384615385</v>
       </c>
       <c r="L66">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="M66">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="N66">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="O66">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>841</v>
+        <v>301</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K67">
-        <v>0.05349794238683128</v>
+        <v>0.0732519422863485</v>
       </c>
       <c r="L67">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="M67">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2965,47 +3028,47 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>460</v>
+        <v>835</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K68">
-        <v>0.04776579352850539</v>
+        <v>0.06766917293233082</v>
       </c>
       <c r="L68">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M68">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N68">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O68">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>618</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K69">
-        <v>0.04439511653718091</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="L69">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M69">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3017,189 +3080,293 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>861</v>
+        <v>288</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K70">
-        <v>0.03937823834196891</v>
+        <v>0.06046511627906977</v>
       </c>
       <c r="L70">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M70">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="N70">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>927</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K71">
-        <v>0.03891233005157056</v>
+        <v>0.0592841163310962</v>
       </c>
       <c r="L71">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M71">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="N71">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>2050</v>
+        <v>841</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K72">
-        <v>0.03352601156069364</v>
+        <v>0.05693950177935943</v>
       </c>
       <c r="L72">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M72">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="N72">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>836</v>
+        <v>265</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K73">
-        <v>0.03099773974814336</v>
+        <v>0.05538461538461539</v>
       </c>
       <c r="L73">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="M73">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="N73">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>3001</v>
+        <v>614</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K74">
-        <v>0.02469135802469136</v>
+        <v>0.04355971896955504</v>
       </c>
       <c r="L74">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="M74">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>553</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K75">
-        <v>0.02074330164217805</v>
+        <v>0.04152249134948097</v>
       </c>
       <c r="L75">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M75">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N75">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>1133</v>
+        <v>831</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K76">
-        <v>0.02036979003447195</v>
+        <v>0.0411522633744856</v>
       </c>
       <c r="L76">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="M76">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="N76">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>3126</v>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K77">
+        <v>0.03104786545924968</v>
+      </c>
+      <c r="L77">
+        <v>96</v>
+      </c>
+      <c r="M77">
+        <v>111</v>
+      </c>
+      <c r="N77">
+        <v>0.86</v>
+      </c>
+      <c r="O77">
+        <v>0.14</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K78">
+        <v>0.03102378490175801</v>
+      </c>
+      <c r="L78">
+        <v>30</v>
+      </c>
+      <c r="M78">
+        <v>31</v>
+      </c>
+      <c r="N78">
+        <v>0.97</v>
+      </c>
+      <c r="O78">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K79">
+        <v>0.01984469370146678</v>
+      </c>
+      <c r="L79">
+        <v>23</v>
+      </c>
+      <c r="M79">
+        <v>25</v>
+      </c>
+      <c r="N79">
+        <v>0.92</v>
+      </c>
+      <c r="O79">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K80">
+        <v>0.01848950172359762</v>
+      </c>
+      <c r="L80">
+        <v>59</v>
+      </c>
+      <c r="M80">
+        <v>69</v>
+      </c>
+      <c r="N80">
+        <v>0.86</v>
+      </c>
+      <c r="O80">
+        <v>0.14</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>3132</v>
       </c>
     </row>
   </sheetData>
